--- a/node-login-master_kor/Express_MongoDB참고.xlsx
+++ b/node-login-master_kor/Express_MongoDB참고.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.101.23.39576"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="550" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MongoDB" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="219">
   <si>
     <t>명령어</t>
   </si>
@@ -2720,6 +2720,48 @@
   </si>
   <si>
     <t>a. insertOne()</t>
+  </si>
+  <si>
+    <t>a. insertOne(newData)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>. insertOne(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>newData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>a에 newData 삽입</t>
   </si>
 </sst>
 </file>
@@ -3432,7 +3474,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3515,6 +3557,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3970,7 +4015,7 @@
   <dimension ref="B1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -4043,8 +4088,11 @@
       </c>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="1" t="s">
-        <v>215</v>
+      <c r="B9" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="2:4">

--- a/node-login-master_kor/Express_MongoDB참고.xlsx
+++ b/node-login-master_kor/Express_MongoDB참고.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.101.23.39576"/>
+  <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.102.51.41307"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="540" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="530" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="MongoDB" sheetId="1" r:id="rId1"/>
@@ -3474,7 +3474,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3557,9 +3557,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3882,8 +3879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:C19"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="B1" tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -3996,9 +3993,7 @@
       </c>
     </row>
     <row r="19" spans="3:3">
-      <c r="C19" s="27" t="s">
-        <v>203</v>
-      </c>
+      <c r="C19" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4014,8 +4009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -4088,7 +4083,7 @@
       </c>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="1" t="s">
         <v>217</v>
       </c>
       <c r="C9" s="1" t="s">
